--- a/opm_hero_property/heroes/27.xlsx
+++ b/opm_hero_property/heroes/27.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11002</v>
       </c>
       <c r="D4" t="n">
-        <v>11002</v>
+        <v>11800</v>
       </c>
       <c r="E4" t="n">
         <v>269</v>
@@ -1304,7 +1305,7 @@
         <v>12137</v>
       </c>
       <c r="D5" t="n">
-        <v>12137</v>
+        <v>13839</v>
       </c>
       <c r="E5" t="n">
         <v>403</v>
@@ -1411,7 +1412,7 @@
         <v>13473</v>
       </c>
       <c r="D6" t="n">
-        <v>13473</v>
+        <v>16239</v>
       </c>
       <c r="E6" t="n">
         <v>552</v>
@@ -1518,7 +1519,7 @@
         <v>15009</v>
       </c>
       <c r="D7" t="n">
-        <v>15009</v>
+        <v>21248</v>
       </c>
       <c r="E7" t="n">
         <v>1035</v>
@@ -1625,7 +1626,7 @@
         <v>16746</v>
       </c>
       <c r="D8" t="n">
-        <v>16746</v>
+        <v>28176</v>
       </c>
       <c r="E8" t="n">
         <v>1533</v>
@@ -1732,7 +1733,7 @@
         <v>18749</v>
       </c>
       <c r="D9" t="n">
-        <v>18749</v>
+        <v>37504</v>
       </c>
       <c r="E9" t="n">
         <v>2024</v>
@@ -1839,7 +1840,7 @@
         <v>19818</v>
       </c>
       <c r="D10" t="n">
-        <v>19818</v>
+        <v>45273</v>
       </c>
       <c r="E10" t="n">
         <v>2392</v>
@@ -1946,7 +1947,7 @@
         <v>21087</v>
       </c>
       <c r="D11" t="n">
-        <v>21087</v>
+        <v>54811</v>
       </c>
       <c r="E11" t="n">
         <v>2791</v>
@@ -2053,7 +2054,7 @@
         <v>23758</v>
       </c>
       <c r="D12" t="n">
-        <v>23758</v>
+        <v>71787</v>
       </c>
       <c r="E12" t="n">
         <v>3435</v>
@@ -2160,7 +2161,7 @@
         <v>24293</v>
       </c>
       <c r="D13" t="n">
-        <v>24293</v>
+        <v>74187</v>
       </c>
       <c r="E13" t="n">
         <v>3864</v>
@@ -2267,7 +2268,7 @@
         <v>24827</v>
       </c>
       <c r="D14" t="n">
-        <v>24827</v>
+        <v>76586</v>
       </c>
       <c r="E14" t="n">
         <v>4294</v>
@@ -2374,7 +2375,7 @@
         <v>25361</v>
       </c>
       <c r="D15" t="n">
-        <v>25361</v>
+        <v>78986</v>
       </c>
       <c r="E15" t="n">
         <v>4723</v>
@@ -2481,7 +2482,7 @@
         <v>25896</v>
       </c>
       <c r="D16" t="n">
-        <v>25896</v>
+        <v>81385</v>
       </c>
       <c r="E16" t="n">
         <v>5153</v>
@@ -2588,7 +2589,7 @@
         <v>26430</v>
       </c>
       <c r="D17" t="n">
-        <v>26430</v>
+        <v>83785</v>
       </c>
       <c r="E17" t="n">
         <v>5582</v>
@@ -6534,4 +6535,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>27</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>28737.2201008</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5439.1318482</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2030.4479</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2810</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>39995.85719920001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7684.720733599999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3177.512</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2810</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>72841.8938416</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13316.8867</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6847.294</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2810</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>80063.08670208001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14668.39488</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8086.0775466</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1907.26227;41,1757.9345052</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,12436.78929072;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>84764.39855455999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>14730.93206</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9324.861093199999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3814.52454;41,3516.3506398</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,24873.57858144;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>267002.441456</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45639.934848</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30298.0209</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>263155.9908928</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41694.60958719999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31618.86796151</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2057.8994688000002;41,1879.97768122</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,13255.1920752;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>298094.25152</v>
+      </c>
+      <c r="U9" t="n">
+        <v>49301.427584</v>
+      </c>
+      <c r="V9" t="n">
+        <v>36902.25620755</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4080</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,10289.497344;41,9407.64587237</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,66275.960376;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>27</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>301965.33328</v>
+      </c>
+      <c r="U10" t="n">
+        <v>51100.513664</v>
+      </c>
+      <c r="V10" t="n">
+        <v>36902.25620755</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4350</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,10289.497344;41,9407.64587237</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,66275.960376;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>27</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>343799.395228</v>
+      </c>
+      <c r="U11" t="n">
+        <v>59994.34841599999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>43382.37205478</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,20330.1211136;41,18626.52673217</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,131235.7529536;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>27</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>305836.41504</v>
+      </c>
+      <c r="U12" t="n">
+        <v>52899.599744</v>
+      </c>
+      <c r="V12" t="n">
+        <v>36902.25620755</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4550</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,10289.497344;41,9407.64587237</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,66275.960376;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>27</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>449419.5707851201</v>
+      </c>
+      <c r="U13" t="n">
+        <v>77018.60142872001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>59077.92502552</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4690</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,12934.83389688;41,11910.93257856</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,82680.80444208;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>457536.3268342401</v>
+      </c>
+      <c r="U14" t="n">
+        <v>78535.80519504001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>60467.54539644001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4760</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,15090.63954636;41,13893.1885148</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,96460.93851576;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>27</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1075937.88521051</v>
+      </c>
+      <c r="U15" t="n">
+        <v>180855.58643552</v>
+      </c>
+      <c r="V15" t="n">
+        <v>151036.365</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5040</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,20023.55049648;41,18904.0975</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,125137.30314725;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5291677.4370759</v>
+      </c>
+      <c r="U16" t="n">
+        <v>892538.228614</v>
+      </c>
+      <c r="V16" t="n">
+        <v>749785.7126069</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,54011.0265523;41,47493</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,311386.82417008;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8555943.9660294</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1437798.126506</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1195585.674</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6510</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,55190;41,47493</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,318333;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>27</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>243616.74914102</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42130.26849452</v>
+      </c>
+      <c r="V18" t="n">
+        <v>28448.46939656</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1546.0270651800001;41,1126.91149484</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,8700.34118094;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>27</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>319700.82485194</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54827.37187266001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>38141.72095304</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4010</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1859.7063207;41,1383.74472956</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,10349.61903492;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>27</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>405956.9238664</v>
+      </c>
+      <c r="U20" t="n">
+        <v>68949.10995256</v>
+      </c>
+      <c r="V20" t="n">
+        <v>52665.61350633</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4350</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2994.95910464;41,2426.8277708799997</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,16608.5821152;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>459853.2102056</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81560.76142526</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60376.92498594</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4760</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3849.1238037599996;41,3213.9065211399998</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,21219.0516022;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>534073.326056</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98743.29027072</v>
+      </c>
+      <c r="V22" t="n">
+        <v>73033.60865945001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5040</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,4581.26792448;41,3936.5732065</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,25264.557694;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>685899.94550555</v>
+      </c>
+      <c r="U23" t="n">
+        <v>133860.041518</v>
+      </c>
+      <c r="V23" t="n">
+        <v>98854.84659570002</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,6306.8698951;41,5354</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,34648.873002160006;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/27.xlsx
+++ b/opm_hero_property/heroes/27.xlsx
@@ -6799,31 +6799,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>28737.2201008</v>
+        <v>7707.8984</v>
       </c>
       <c r="U2" t="n">
-        <v>5439.1318482</v>
+        <v>1555.6137</v>
       </c>
       <c r="V2" t="n">
-        <v>2030.4479</v>
+        <v>622.4479</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA2" t="n">
-        <v>2810</v>
+        <v>400</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -6910,31 +6910,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>39995.85719920001</v>
+        <v>20751.2516</v>
       </c>
       <c r="U3" t="n">
-        <v>7684.720733599999</v>
+        <v>3879.0276</v>
       </c>
       <c r="V3" t="n">
-        <v>3177.512</v>
+        <v>1936.512</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA3" t="n">
-        <v>2810</v>
+        <v>800</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7021,31 +7021,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>72841.8938416</v>
+        <v>59238.0168</v>
       </c>
       <c r="U4" t="n">
-        <v>13316.8867</v>
+        <v>10044.95</v>
       </c>
       <c r="V4" t="n">
-        <v>6847.294</v>
+        <v>6096.294</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA4" t="n">
-        <v>2810</v>
+        <v>1500</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7132,31 +7132,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>80063.08670208001</v>
+        <v>66459.20966048</v>
       </c>
       <c r="U5" t="n">
-        <v>14668.39488</v>
+        <v>11396.45818</v>
       </c>
       <c r="V5" t="n">
-        <v>8086.0775466</v>
+        <v>7335.0775466</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA5" t="n">
-        <v>2880</v>
+        <v>1570</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,0.0;31,1907.26227;41,1757.9345052</t>
+          <t>21,0;31,1907;41,1757</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,12436.78929072;31,0.0;41,0.0</t>
+          <t>21,12436;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7251,31 +7251,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>84764.39855455999</v>
+        <v>73764.39855456</v>
       </c>
       <c r="U6" t="n">
-        <v>14730.93206</v>
+        <v>12790.93206</v>
       </c>
       <c r="V6" t="n">
-        <v>9324.861093199999</v>
+        <v>8573.861093199999</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2070</v>
+        <v>1570</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,0.0;31,3814.52454;41,3516.3506398</t>
+          <t>21,0;31,3814;41,3516</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,24873.57858144;31,0.0;41,0.0</t>
+          <t>21,24873;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>267002.441456</v>
+        <v>255002.088</v>
       </c>
       <c r="U7" t="n">
-        <v>45639.934848</v>
+        <v>40062.768</v>
       </c>
       <c r="V7" t="n">
         <v>30298.0209</v>
@@ -7391,7 +7391,7 @@
         <v>2160</v>
       </c>
       <c r="AA7" t="n">
-        <v>4620</v>
+        <v>3810</v>
       </c>
       <c r="AB7" t="n">
         <v>1080</v>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0.0;31,2057.8994688000002;41,1879.97768122</t>
+          <t>21,0;31,2057;41,1879</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,13255.1920752;31,0.0;41,0.0</t>
+          <t>21,13255;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,0.0;31,10289.497344;41,9407.64587237</t>
+          <t>21,0;31,10289;41,9407</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,66275.960376;31,0.0;41,0.0</t>
+          <t>21,66275;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0.0;31,10289.497344;41,9407.64587237</t>
+          <t>21,0;31,10289;41,9407</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,66275.960376;31,0.0;41,0.0</t>
+          <t>21,66275;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0.0;31,20330.1211136;41,18626.52673217</t>
+          <t>21,0;31,20330;41,18626</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,131235.7529536;31,0.0;41,0.0</t>
+          <t>21,131235;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0.0;31,10289.497344;41,9407.64587237</t>
+          <t>21,0;31,10289;41,9407</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,66275.960376;31,0.0;41,0.0</t>
+          <t>21,66275;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0.0;31,12934.83389688;41,11910.93257856</t>
+          <t>21,0;31,12934;41,11910</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,82680.80444208;31,0.0;41,0.0</t>
+          <t>21,82680;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0.0;31,15090.63954636;41,13893.1885148</t>
+          <t>21,0;31,15090;41,13893</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,96460.93851576;31,0.0;41,0.0</t>
+          <t>21,96460;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0.0;31,20023.55049648;41,18904.0975</t>
+          <t>21,0;31,20023;41,18904</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,125137.30314725;31,0.0;41,0.0</t>
+          <t>21,125137;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0.0;31,54011.0265523;41,47493</t>
+          <t>21,0;31,54011;41,47493</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,311386.82417008;31,0.0;41,0.0</t>
+          <t>21,311386;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0.0;31,55190;41,47493</t>
+          <t>21,0;31,55190;41,47493</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,318333;31,0.0;41,0.0</t>
+          <t>21,318333;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8671,31 +8671,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>243616.74914102</v>
+        <v>232616.74914102</v>
       </c>
       <c r="U18" t="n">
-        <v>42130.26849452</v>
+        <v>40190.26849452</v>
       </c>
       <c r="V18" t="n">
-        <v>28448.46939656</v>
+        <v>27697.46939656</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA18" t="n">
-        <v>2070</v>
+        <v>1570</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0.0;31,1546.0270651800001;41,1126.91149484</t>
+          <t>21,0;31,1546;41,1126</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,8700.34118094;31,0.0;41,0.0</t>
+          <t>21,8700;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8790,31 +8790,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>319700.82485194</v>
+        <v>296600.82485194</v>
       </c>
       <c r="U19" t="n">
-        <v>54827.37187266001</v>
+        <v>50753.37187266001</v>
       </c>
       <c r="V19" t="n">
-        <v>38141.72095304</v>
+        <v>36564.92095304</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>590</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA19" t="n">
-        <v>4010</v>
+        <v>2660</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -8839,12 +8839,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0.0;31,1859.7063207;41,1383.74472956</t>
+          <t>21,0;31,1859;41,1383</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,10349.61903492;31,0.0;41,0.0</t>
+          <t>21,10349;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0.0;31,2994.95910464;41,2426.8277708799997</t>
+          <t>21,0;31,2994;41,2426</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,16608.5821152;31,0.0;41,0.0</t>
+          <t>21,16608;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9077,12 +9077,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0.0;31,3849.1238037599996;41,3213.9065211399998</t>
+          <t>21,0;31,3849;41,3213</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,21219.0516022;31,0.0;41,0.0</t>
+          <t>21,21219;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0.0;31,4581.26792448;41,3936.5732065</t>
+          <t>21,0;31,4581;41,3936</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,25264.557694;31,0.0;41,0.0</t>
+          <t>21,25264;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0.0;31,6306.8698951;41,5354</t>
+          <t>21,0;31,6306;41,5354</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,34648.873002160006;31,0.0;41,0.0</t>
+          <t>21,34648;31,0;41,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/27.xlsx
+++ b/opm_hero_property/heroes/27.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7707.8984</v>
+        <v>5426554.4370759</v>
       </c>
       <c r="U2" t="n">
-        <v>1555.6137</v>
+        <v>916266.228614</v>
       </c>
       <c r="V2" t="n">
-        <v>622.4479</v>
+        <v>771625.7126069</v>
       </c>
       <c r="W2" t="n">
-        <v>562</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>80</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>240</v>
+        <v>2160</v>
       </c>
       <c r="AA2" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,54011;41,47493</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,311386;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>11930725.496625</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1036962.4867634</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>632486.728613775</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16201071.76200218</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6964,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>20751.2516</v>
+        <v>685899.94550555</v>
       </c>
       <c r="U3" t="n">
-        <v>3879.0276</v>
+        <v>133860.041518</v>
       </c>
       <c r="V3" t="n">
-        <v>1936.512</v>
+        <v>98854.84659570002</v>
       </c>
       <c r="W3" t="n">
-        <v>673</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>160</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>480</v>
+        <v>2160</v>
       </c>
       <c r="AA3" t="n">
-        <v>800</v>
+        <v>5600</v>
       </c>
       <c r="AB3" t="n">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,6306;41,5354</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,34648;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1352983.700125</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>117390.2090228</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>72175.19075722501</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2193382.099905025</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7071,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7089,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7107,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7121,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>59238.0168</v>
+        <v>7707.8984</v>
       </c>
       <c r="U4" t="n">
-        <v>10044.95</v>
+        <v>1555.6137</v>
       </c>
       <c r="V4" t="n">
-        <v>6096.294</v>
+        <v>622.4479</v>
       </c>
       <c r="W4" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7174,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19284.058355</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23834.008355</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7206,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7224,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,66 +7256,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>66459.20966048</v>
+        <v>20751.2516</v>
       </c>
       <c r="U5" t="n">
-        <v>11396.45818</v>
+        <v>3879.0276</v>
       </c>
       <c r="V5" t="n">
-        <v>7335.0775466</v>
+        <v>1936.512</v>
       </c>
       <c r="W5" t="n">
-        <v>1000</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,0;31,1907;41,1757</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,12436;31,0;41,0</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49545.58603999999</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61533.93604</v>
       </c>
     </row>
     <row r="6">
@@ -7212,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7243,27 +7387,27 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>73764.39855456</v>
+        <v>59238.0168</v>
       </c>
       <c r="U6" t="n">
-        <v>12790.93206</v>
+        <v>10044.95</v>
       </c>
       <c r="V6" t="n">
-        <v>8573.861093199999</v>
+        <v>6096.294</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
@@ -7272,7 +7416,7 @@
         <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>1570</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
         <v>450</v>
@@ -7290,23 +7434,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,0;31,3814;41,3516</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,24873;31,0;41,0</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119927.2623</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>168574.3623</v>
       </c>
     </row>
     <row r="7">
@@ -7316,31 +7476,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7352,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7366,59 +7526,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>255002.088</v>
+        <v>66459.20966048</v>
       </c>
       <c r="U7" t="n">
-        <v>40062.768</v>
+        <v>11396.45818</v>
       </c>
       <c r="V7" t="n">
-        <v>30298.0209</v>
+        <v>7335.0775466</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,1907;41,1757</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,12436;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>119927.2623</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>23669.60469543</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>192418.96699543</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7427,31 +7619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7463,10 +7655,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7477,66 +7669,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>263155.9908928</v>
+        <v>73764.39855456</v>
       </c>
       <c r="U8" t="n">
-        <v>41694.60958719999</v>
+        <v>12790.93206</v>
       </c>
       <c r="V8" t="n">
-        <v>31618.86796151</v>
+        <v>8573.861093199999</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,2057;41,1879</t>
+          <t>21,0;31,3814;41,3516</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,13255;31,0;41,0</t>
-        </is>
+          <t>21,24873;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>119927.2623</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>380.4593636</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>47339.20939086</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>216469.03105446</v>
       </c>
     </row>
     <row r="9">
@@ -7561,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7570,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7592,21 +7808,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>298094.25152</v>
+        <v>254213.088</v>
       </c>
       <c r="U9" t="n">
-        <v>49301.427584</v>
+        <v>40219.768</v>
       </c>
       <c r="V9" t="n">
-        <v>36902.25620755</v>
+        <v>30425.0209</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
@@ -7621,7 +7837,7 @@
         <v>2160</v>
       </c>
       <c r="AA9" t="n">
-        <v>4080</v>
+        <v>3810</v>
       </c>
       <c r="AB9" t="n">
         <v>1080</v>
@@ -7642,20 +7858,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,0;31,10289;41,9407</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,66275;31,0;41,0</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>549958.757375</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>718967.3573749999</v>
       </c>
     </row>
     <row r="10">
@@ -7680,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7689,7 +7921,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7711,21 +7943,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>301965.33328</v>
+        <v>262366.9908928</v>
       </c>
       <c r="U10" t="n">
-        <v>51100.513664</v>
+        <v>41851.60958719999</v>
       </c>
       <c r="V10" t="n">
-        <v>36902.25620755</v>
+        <v>31745.86796151</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7740,7 +7972,7 @@
         <v>2160</v>
       </c>
       <c r="AA10" t="n">
-        <v>4350</v>
+        <v>3810</v>
       </c>
       <c r="AB10" t="n">
         <v>1080</v>
@@ -7761,20 +7993,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,10289;41,9407</t>
+          <t>21,0;31,2057;41,1879</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,66275;31,0;41,0</t>
-        </is>
+          <t>21,13255;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>549958.757375</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1628.4775712</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>25380.0028769625</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>745975.8378231626</v>
       </c>
     </row>
     <row r="11">
@@ -7799,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7808,7 +8064,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7830,21 +8086,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>343799.395228</v>
+        <v>297305.25152</v>
       </c>
       <c r="U11" t="n">
-        <v>59994.34841599999</v>
+        <v>49458.427584</v>
       </c>
       <c r="V11" t="n">
-        <v>43382.37205478</v>
+        <v>37029.25620755</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -7859,7 +8115,7 @@
         <v>2160</v>
       </c>
       <c r="AA11" t="n">
-        <v>4620</v>
+        <v>4080</v>
       </c>
       <c r="AB11" t="n">
         <v>1080</v>
@@ -7880,20 +8136,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,20330;41,18626</t>
+          <t>21,0;31,10289;41,9407</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,131235;31,0;41,0</t>
-        </is>
+          <t>21,66275;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>549958.757375</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>18142.7532832</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>126900.0143848125</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>864010.1250430126</v>
       </c>
     </row>
     <row r="12">
@@ -7918,13 +8198,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7949,27 +8229,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>305836.41504</v>
+        <v>301176.33328</v>
       </c>
       <c r="U12" t="n">
-        <v>52899.599744</v>
+        <v>51257.513664</v>
       </c>
       <c r="V12" t="n">
-        <v>36902.25620755</v>
+        <v>37029.25620755</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7978,7 +8258,7 @@
         <v>2160</v>
       </c>
       <c r="AA12" t="n">
-        <v>4550</v>
+        <v>4350</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7996,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8014,6 +8294,30 @@
           <t>21,66275;31,0;41,0</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>549958.757375</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>34657.0289952</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>126900.0143848125</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>880524.4007550125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8022,10 +8326,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8040,13 +8344,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8058,10 +8362,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8072,23 +8376,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>449419.5707851201</v>
+        <v>343010.395228</v>
       </c>
       <c r="U13" t="n">
-        <v>77018.60142872001</v>
+        <v>60151.34841599999</v>
       </c>
       <c r="V13" t="n">
-        <v>59077.92502552</v>
+        <v>43509.37205478</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8097,7 +8401,7 @@
         <v>2160</v>
       </c>
       <c r="AA13" t="n">
-        <v>4690</v>
+        <v>4620</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8106,32 +8410,56 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,12934;41,11910</t>
+          <t>21,0;31,20330;41,18626</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,82680;31,0;41,0</t>
-        </is>
+          <t>21,131235;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>549958.757375</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>51171.3047072</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>251077.426531185</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1021216.088613385</v>
       </c>
     </row>
     <row r="14">
@@ -8141,10 +8469,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8159,13 +8487,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8177,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8191,23 +8519,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>457536.3268342401</v>
+        <v>305047.41504</v>
       </c>
       <c r="U14" t="n">
-        <v>78535.80519504001</v>
+        <v>53056.599744</v>
       </c>
       <c r="V14" t="n">
-        <v>60467.54539644001</v>
+        <v>37029.25620755</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8216,7 +8544,7 @@
         <v>2160</v>
       </c>
       <c r="AA14" t="n">
-        <v>4760</v>
+        <v>4550</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8225,32 +8553,56 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,15090;41,13893</t>
+          <t>21,0;31,10289;41,9407</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,96460;31,0;41,0</t>
-        </is>
+          <t>21,66275;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>549958.757375</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>51171.3047072</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>126900.0143848125</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>896863.6764670125</v>
       </c>
     </row>
     <row r="15">
@@ -8260,10 +8612,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8278,13 +8630,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8296,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8310,23 +8662,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1075937.88521051</v>
+        <v>451919.5707851201</v>
       </c>
       <c r="U15" t="n">
-        <v>180855.58643552</v>
+        <v>77826.60142872001</v>
       </c>
       <c r="V15" t="n">
-        <v>151036.365</v>
+        <v>59851.92502552</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8335,7 +8687,7 @@
         <v>2160</v>
       </c>
       <c r="AA15" t="n">
-        <v>5040</v>
+        <v>4690</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8344,32 +8696,56 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,20023;41,18904</t>
+          <t>21,0;31,12934;41,11910</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,125137;31,0;41,0</t>
-        </is>
+          <t>21,82680;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>850923.2461200001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>76236.71840292</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>159454.675017108</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1346229.189540028</v>
       </c>
     </row>
     <row r="16">
@@ -8379,10 +8755,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8397,13 +8773,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8415,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8429,23 +8805,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5291677.4370759</v>
+        <v>460036.3268342401</v>
       </c>
       <c r="U16" t="n">
-        <v>892538.228614</v>
+        <v>79343.80519504001</v>
       </c>
       <c r="V16" t="n">
-        <v>749785.7126069</v>
+        <v>61241.54539644001</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8454,7 +8830,7 @@
         <v>2160</v>
       </c>
       <c r="AA16" t="n">
-        <v>5600</v>
+        <v>4760</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8463,32 +8839,56 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,54011;41,47493</t>
+          <t>21,0;31,15090;41,13893</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,311386;31,0;41,0</t>
-        </is>
+          <t>21,96460;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>850923.2461200001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>76236.71840292</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>186030.454186626</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1372979.968709546</v>
       </c>
     </row>
     <row r="17">
@@ -8498,10 +8898,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8516,13 +8916,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8534,10 +8934,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8548,23 +8948,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8555943.9660294</v>
+        <v>1113432.88521051</v>
       </c>
       <c r="U17" t="n">
-        <v>1437798.126506</v>
+        <v>187712.58643552</v>
       </c>
       <c r="V17" t="n">
-        <v>1195585.674</v>
+        <v>157669.365</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8573,7 +8973,7 @@
         <v>2160</v>
       </c>
       <c r="AA17" t="n">
-        <v>6510</v>
+        <v>5040</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8582,66 +8982,90 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,55190;41,47493</t>
+          <t>21,0;31,20023;41,18904</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,318333;31,0;41,0</t>
-        </is>
+          <t>21,125137;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1960975.69918</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>167935.24152668</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>246900.039658918</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3329281.080365598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8653,114 +9077,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>232616.74914102</v>
+        <v>5426554.4370759</v>
       </c>
       <c r="U18" t="n">
-        <v>40190.26849452</v>
+        <v>916266.228614</v>
       </c>
       <c r="V18" t="n">
-        <v>27697.46939656</v>
+        <v>771625.7126069</v>
       </c>
       <c r="W18" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>370</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>900</v>
+        <v>2160</v>
       </c>
       <c r="AA18" t="n">
-        <v>1570</v>
+        <v>5600</v>
       </c>
       <c r="AB18" t="n">
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,1546;41,1126</t>
+          <t>21,0;31,54011;41,47493</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,8700;31,0;41,0</t>
-        </is>
+          <t>21,311386;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>11930725.496625</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1036962.4867634</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>632486.728613775</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16201071.76200218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8772,80 +9220,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>296600.82485194</v>
+        <v>8865661.9660294</v>
       </c>
       <c r="U19" t="n">
-        <v>50753.37187266001</v>
+        <v>1491831.126506</v>
       </c>
       <c r="V19" t="n">
-        <v>36564.92095304</v>
+        <v>1244817.674</v>
       </c>
       <c r="W19" t="n">
-        <v>1250</v>
+        <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>590</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1350</v>
+        <v>2160</v>
       </c>
       <c r="AA19" t="n">
-        <v>2660</v>
+        <v>6510</v>
       </c>
       <c r="AB19" t="n">
-        <v>675</v>
+        <v>1080</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,1859;41,1383</t>
+          <t>21,0;31,55190;41,47493</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,10349;31,0;41,0</t>
-        </is>
+          <t>21,318333;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>19354739.1141</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1685523.8003208</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>649467.6</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26334705.8644208</v>
       </c>
     </row>
     <row r="20">
@@ -8855,31 +9327,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8891,80 +9363,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>405956.9238664</v>
+        <v>232616.74914102</v>
       </c>
       <c r="U20" t="n">
-        <v>68949.10995256</v>
+        <v>40190.26849452</v>
       </c>
       <c r="V20" t="n">
-        <v>52665.61350633</v>
+        <v>27697.46939656</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>4350</v>
+        <v>1570</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,2994;41,2426</t>
+          <t>21,0;31,1546;41,1126</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,16608;31,0;41,0</t>
-        </is>
+          <t>21,8700;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>573967.78056</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1797.02485276</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17205.045370668</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>674337.550783428</v>
       </c>
     </row>
     <row r="21">
@@ -8974,31 +9470,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9010,80 +9506,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>459853.2102056</v>
+        <v>296600.82485194</v>
       </c>
       <c r="U21" t="n">
-        <v>81560.76142526</v>
+        <v>50753.37187266001</v>
       </c>
       <c r="V21" t="n">
-        <v>60376.92498594</v>
+        <v>36564.92095304</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA21" t="n">
-        <v>4760</v>
+        <v>2660</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,3849;41,3213</t>
+          <t>21,0;31,1859;41,1383</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,21219;31,0;41,0</t>
-        </is>
+          <t>21,10349;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>685038.87157</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>22929.77867932</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>20757.786003954</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>864673.1362532739</v>
       </c>
     </row>
     <row r="22">
@@ -9093,10 +9613,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9108,16 +9628,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9129,37 +9649,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>534073.326056</v>
+        <v>405956.9238664</v>
       </c>
       <c r="U22" t="n">
-        <v>98743.29027072</v>
+        <v>68949.10995256</v>
       </c>
       <c r="V22" t="n">
-        <v>73033.60865945001</v>
+        <v>52665.61350633</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9168,7 +9688,7 @@
         <v>2160</v>
       </c>
       <c r="AA22" t="n">
-        <v>5040</v>
+        <v>4350</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9177,32 +9697,56 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,4581;41,3936</t>
+          <t>21,0;31,2994;41,2426</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,25264;31,0;41,0</t>
-        </is>
+          <t>21,16608;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>874817.691545</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>53161.83851531999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>34136.4801401415</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1197286.060200462</v>
       </c>
     </row>
     <row r="23">
@@ -9212,10 +9756,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9230,13 +9774,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9248,10 +9792,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9262,23 +9806,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>685899.94550555</v>
+        <v>459853.2102056</v>
       </c>
       <c r="U23" t="n">
-        <v>133860.041518</v>
+        <v>81560.76142526</v>
       </c>
       <c r="V23" t="n">
-        <v>98854.84659570002</v>
+        <v>60376.92498594</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9287,7 +9831,7 @@
         <v>2160</v>
       </c>
       <c r="AA23" t="n">
-        <v>5600</v>
+        <v>4760</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9296,32 +9840,342 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,3849;41,3213</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,21219;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>956769.61871</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>85057.27663876001</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>44136.787360289</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1383122.282709049</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>534073.326056</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98743.29027072</v>
+      </c>
+      <c r="V24" t="n">
+        <v>73033.60865945001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5040</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,4581;41,3936</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,25264;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>1085831.422135</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>95487.74491536</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>52995.41166544551</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1649377.778715805</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>27</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>685899.94550555</v>
+      </c>
+      <c r="U25" t="n">
+        <v>133860.041518</v>
+      </c>
+      <c r="V25" t="n">
+        <v>98854.84659570002</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,0;31,6306;41,5354</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,34648;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1352983.700125</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>117390.2090228</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>72175.19075722501</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2193382.099905025</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/27.xlsx
+++ b/opm_hero_property/heroes/27.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>27</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5426554.4370759</v>
+        <v>6389029.5627879</v>
       </c>
       <c r="U2" t="n">
-        <v>916266.228614</v>
+        <v>1063555.972534</v>
       </c>
       <c r="V2" t="n">
-        <v>771625.7126069</v>
+        <v>925433.1701669</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11930725.496625</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1036962.4867634</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2960016.439730001</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1908775.2</v>
+      </c>
+      <c r="AU2" t="n">
         <v>632486.728613775</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16201071.76200218</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19064239.00173217</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>27</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>685899.94550555</v>
+        <v>794290.23872955</v>
       </c>
       <c r="U3" t="n">
-        <v>133860.041518</v>
+        <v>150447.150558</v>
       </c>
       <c r="V3" t="n">
-        <v>98854.84659570002</v>
+        <v>116537.0292757</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1352983.700125</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>117390.2090228</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>575976.29601</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>216341.2</v>
+      </c>
+      <c r="AU3" t="n">
         <v>72175.19075722501</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2193382.099905025</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2517895.995915025</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>27</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7707.8984</v>
+        <v>8214.8984</v>
       </c>
       <c r="U4" t="n">
-        <v>1555.6137</v>
+        <v>1632.6137</v>
       </c>
       <c r="V4" t="n">
-        <v>622.4479</v>
+        <v>703.4479</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19284.058355</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23834.008355</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1504.05</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25338.058355</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>27</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20751.2516</v>
+        <v>35650.2516</v>
       </c>
       <c r="U5" t="n">
-        <v>3879.0276</v>
+        <v>6159.027599999999</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.512</v>
+        <v>4317.512</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49545.58603999999</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61533.93604</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>44321.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105855.68604</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>27</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59238.0168</v>
+        <v>123114.0168</v>
       </c>
       <c r="U6" t="n">
-        <v>10044.95</v>
+        <v>19819.95</v>
       </c>
       <c r="V6" t="n">
-        <v>6096.294</v>
+        <v>16303.294</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119927.2623</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>168574.3623</v>
+      <c r="AT6" t="n">
+        <v>190013.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>358588.1123</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>27</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>66459.20966048</v>
+        <v>130335.20966048</v>
       </c>
       <c r="U7" t="n">
-        <v>11396.45818</v>
+        <v>21171.45818</v>
       </c>
       <c r="V7" t="n">
-        <v>7335.0775466</v>
+        <v>17542.0775466</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119927.2623</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>190013.75</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23669.60469543</v>
       </c>
-      <c r="AS7" t="n">
-        <v>192418.96699543</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>382432.71699543</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>27</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>73764.39855456</v>
+        <v>137640.39855456</v>
       </c>
       <c r="U8" t="n">
-        <v>12790.93206</v>
+        <v>22565.93206</v>
       </c>
       <c r="V8" t="n">
-        <v>8573.861093199999</v>
+        <v>18780.8610932</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119927.2623</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>380.4593636</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>190013.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>47339.20939086</v>
       </c>
-      <c r="AS8" t="n">
-        <v>216469.03105446</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>406482.78105446</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>27</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>254213.088</v>
+        <v>442610.62888</v>
       </c>
       <c r="U9" t="n">
-        <v>40219.768</v>
+        <v>68367.61567999999</v>
       </c>
       <c r="V9" t="n">
-        <v>30425.0209</v>
+        <v>58657.603109</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>549958.757375</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>718967.3573749999</v>
+        <v>45109.93757374999</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>445236.1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.59999999995</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1264042.39494875</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>27</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>262366.9908928</v>
+        <v>508475.2533447104</v>
       </c>
       <c r="U10" t="n">
-        <v>41851.60958719999</v>
+        <v>79241.00572881919</v>
       </c>
       <c r="V10" t="n">
-        <v>31745.86796151</v>
+        <v>66555.26227357918</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>549958.757375</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>1628.4775712</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>45109.93757374999</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>445236.1</v>
+      </c>
+      <c r="AU10" t="n">
         <v>25380.0028769625</v>
       </c>
-      <c r="AS10" t="n">
-        <v>745975.8378231626</v>
+      <c r="AV10" t="n">
+        <v>253641.6755497307</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1450344.950946643</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>27</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>297305.25152</v>
+        <v>608217.1226632</v>
       </c>
       <c r="U11" t="n">
-        <v>49458.427584</v>
+        <v>95832.357173504</v>
       </c>
       <c r="V11" t="n">
-        <v>37029.25620755</v>
+        <v>79059.75150804791</v>
       </c>
       <c r="W11" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>4080</v>
+        <v>4090</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>549958.757375</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>18142.7532832</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>45109.93757374999</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>445236.1</v>
+      </c>
+      <c r="AU11" t="n">
         <v>126900.0143848125</v>
       </c>
-      <c r="AS11" t="n">
-        <v>864010.1250430126</v>
+      <c r="AV11" t="n">
+        <v>421959.8957148906</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1736697.458331653</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>27</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>301176.33328</v>
+        <v>694596.38151736</v>
       </c>
       <c r="U12" t="n">
-        <v>51257.513664</v>
+        <v>107063.449932224</v>
       </c>
       <c r="V12" t="n">
-        <v>37029.25620755</v>
+        <v>90043.2196300451</v>
       </c>
       <c r="W12" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>4350</v>
+        <v>4370</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>549958.757375</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>34657.0289952</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>45109.93757374999</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>445236.1</v>
+      </c>
+      <c r="AU12" t="n">
         <v>126900.0143848125</v>
       </c>
-      <c r="AS12" t="n">
-        <v>880524.4007550125</v>
+      <c r="AV12" t="n">
+        <v>632823.8605937024</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1964075.698922465</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>27</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>343010.395228</v>
+        <v>833380.9747662679</v>
       </c>
       <c r="U13" t="n">
-        <v>60151.34841599999</v>
+        <v>128992.319214016</v>
       </c>
       <c r="V13" t="n">
-        <v>43509.37205478</v>
+        <v>107648.9723428588</v>
       </c>
       <c r="W13" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>4620</v>
+        <v>4670</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>549958.757375</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>51171.3047072</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>45109.93757374999</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>445236.1</v>
+      </c>
+      <c r="AU13" t="n">
         <v>251077.426531185</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1021216.088613385</v>
+      <c r="AV13" t="n">
+        <v>884048.5421272812</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2355992.068314416</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>27</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>305047.41504</v>
+        <v>926747.4018041601</v>
       </c>
       <c r="U14" t="n">
-        <v>53056.599744</v>
+        <v>136589.770162176</v>
       </c>
       <c r="V14" t="n">
-        <v>37029.25620755</v>
+        <v>111212.3785385472</v>
       </c>
       <c r="W14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>4550</v>
+        <v>4600</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>549958.757375</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>51171.3047072</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44934.93757374999</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>445236.1</v>
+      </c>
+      <c r="AU14" t="n">
         <v>126900.0143848125</v>
       </c>
-      <c r="AS14" t="n">
-        <v>896863.6764670125</v>
+      <c r="AV14" t="n">
+        <v>1174504.378479058</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2522095.492519821</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>27</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>451919.5707851201</v>
+        <v>1478420.044102392</v>
       </c>
       <c r="U15" t="n">
-        <v>77826.60142872001</v>
+        <v>227103.2009376504</v>
       </c>
       <c r="V15" t="n">
-        <v>59851.92502552</v>
+        <v>188276.9083240254</v>
       </c>
       <c r="W15" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>4690</v>
+        <v>4790</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>850923.2461200001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>76236.71840292</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>129127.3649224</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>814630.05</v>
+      </c>
+      <c r="AU15" t="n">
         <v>159454.675017108</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1346229.189540028</v>
+      <c r="AV15" t="n">
+        <v>1964520.648972897</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4142381.853435326</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>27</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>460036.3268342401</v>
+        <v>1514778.390873116</v>
       </c>
       <c r="U16" t="n">
-        <v>79343.80519504001</v>
+        <v>232928.7399428295</v>
       </c>
       <c r="V16" t="n">
-        <v>61241.54539644001</v>
+        <v>193145.072666134</v>
       </c>
       <c r="W16" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>4760</v>
+        <v>4960</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>850923.2461200001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>76236.71840292</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>129302.3649224</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>814630.05</v>
+      </c>
+      <c r="AU16" t="n">
         <v>186030.454186626</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1372979.968709546</v>
+      <c r="AV16" t="n">
+        <v>2043691.380676964</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4248303.36430891</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>27</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1113432.88521051</v>
+        <v>2765620.696685763</v>
       </c>
       <c r="U17" t="n">
-        <v>187712.58643552</v>
+        <v>420877.6918821735</v>
       </c>
       <c r="V17" t="n">
-        <v>157669.365</v>
+        <v>367857.72728</v>
       </c>
       <c r="W17" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>5040</v>
+        <v>5240</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1960975.69918</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>167935.24152668</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>761909.6279672</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1301588.05</v>
+      </c>
+      <c r="AU17" t="n">
         <v>246900.039658918</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3329281.080365598</v>
+      <c r="AV17" t="n">
+        <v>3092016.044199962</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7801291.20253276</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>27</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5426554.4370759</v>
+        <v>9597214.487587418</v>
       </c>
       <c r="U18" t="n">
-        <v>916266.228614</v>
+        <v>1457599.177293012</v>
       </c>
       <c r="V18" t="n">
-        <v>771625.7126069</v>
+        <v>1257796.028246594</v>
       </c>
       <c r="W18" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11930725.496625</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1036962.4867634</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2960016.439730001</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1908775.2</v>
+      </c>
+      <c r="AU18" t="n">
         <v>632486.728613775</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16201071.76200218</v>
+      <c r="AV18" t="n">
+        <v>7840569.471594939</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26904808.47332712</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>27</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8865661.9660294</v>
+        <v>16470010.56851593</v>
       </c>
       <c r="U19" t="n">
-        <v>1491831.126506</v>
+        <v>2600663.660072704</v>
       </c>
       <c r="V19" t="n">
-        <v>1244817.674</v>
+        <v>2228803.2236384</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>6510</v>
+        <v>6710</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19354739.1141</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>1685523.8003208</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6372220.317115</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1908775.2</v>
+      </c>
+      <c r="AU19" t="n">
         <v>649467.6</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26334705.8644208</v>
+      <c r="AV19" t="n">
+        <v>16103747.67740258</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47250315.85893838</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>27</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>232616.74914102</v>
+        <v>239809.74914102</v>
       </c>
       <c r="U20" t="n">
-        <v>40190.26849452</v>
+        <v>41290.26849452</v>
       </c>
       <c r="V20" t="n">
-        <v>27697.46939656</v>
+        <v>28870.46939656</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>573967.78056</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>1797.02485276</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21527.75</v>
+      </c>
+      <c r="AU20" t="n">
         <v>17205.045370668</v>
       </c>
-      <c r="AS20" t="n">
-        <v>674337.550783428</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>695865.3007834281</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>27</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>296600.82485194</v>
+        <v>311430.41956994</v>
       </c>
       <c r="U21" t="n">
-        <v>50753.37187266001</v>
+        <v>53047.33389066</v>
       </c>
       <c r="V21" t="n">
-        <v>36564.92095304</v>
+        <v>38920.27853104</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>685038.87157</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>22929.77867932</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74491.7387157</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>37359.1</v>
+      </c>
+      <c r="AU21" t="n">
         <v>20757.786003954</v>
       </c>
-      <c r="AS21" t="n">
-        <v>864673.1362532739</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>908874.374968974</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>27</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>405956.9238664</v>
+        <v>535510.4958526168</v>
       </c>
       <c r="U22" t="n">
-        <v>68949.10995256</v>
+        <v>87472.62666153535</v>
       </c>
       <c r="V22" t="n">
-        <v>52665.61350633</v>
+        <v>68601.39661259373</v>
       </c>
       <c r="W22" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>4350</v>
+        <v>4400</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>874817.691545</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>53161.83851531999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>106258.32691545</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>50456.85000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>34136.4801401415</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1197286.060200462</v>
+      <c r="AV22" t="n">
+        <v>290399.8132237132</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1546882.650339625</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>27</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>459853.2102056</v>
+        <v>680488.1312811456</v>
       </c>
       <c r="U23" t="n">
-        <v>81560.76142526</v>
+        <v>116915.6765530744</v>
       </c>
       <c r="V23" t="n">
-        <v>60376.92498594</v>
+        <v>88132.50304648542</v>
       </c>
       <c r="W23" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>4760</v>
+        <v>4960</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>956769.61871</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>85057.27663876001</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171644.8923742</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>92328.35000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>44136.787360289</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1383122.282709049</v>
+      <c r="AV23" t="n">
+        <v>515131.1669314013</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2009700.69201465</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>27</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>534073.326056</v>
+        <v>862188.240813616</v>
       </c>
       <c r="U24" t="n">
-        <v>98743.29027072</v>
+        <v>151775.7545124711</v>
       </c>
       <c r="V24" t="n">
-        <v>73033.60865945001</v>
+        <v>115554.9461205094</v>
       </c>
       <c r="W24" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>5040</v>
+        <v>5240</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1085831.422135</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>95487.74491536</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>301021.4568854</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>147518.5</v>
+      </c>
+      <c r="AU24" t="n">
         <v>52995.41166544551</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1649377.778715805</v>
+      <c r="AV24" t="n">
+        <v>750017.8515413897</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2590314.387142595</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>27</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>685899.94550555</v>
+        <v>1485551.10722957</v>
       </c>
       <c r="U25" t="n">
-        <v>133860.041518</v>
+        <v>259577.550965238</v>
       </c>
       <c r="V25" t="n">
-        <v>98854.84659570002</v>
+        <v>200820.9092448351</v>
       </c>
       <c r="W25" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1352983.700125</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>117390.2090228</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>575976.29601</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>216341.2</v>
+      </c>
+      <c r="AU25" t="n">
         <v>72175.19075722501</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2193382.099905025</v>
+      <c r="AV25" t="n">
+        <v>1931292.94113249</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4449188.937047515</v>
       </c>
     </row>
   </sheetData>
